--- a/output_excel.xlsx
+++ b/output_excel.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,7 +753,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>init1_1</t>
+          <t>init1_2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -800,7 +800,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>init1_2</t>
+          <t>init1_3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -839,53 +839,6 @@
         </is>
       </c>
       <c r="I9" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>init1_3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
         <is>
           <t>y</t>
         </is>
